--- a/biology/Médecine/Graphopathologie/Graphopathologie.xlsx
+++ b/biology/Médecine/Graphopathologie/Graphopathologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il faut distinguer la graphologie qui est l'étude de la personnalité par l'interprétation de l'écriture de la graphopathologie ou étude des écritures dites spéciales, à la suite de déformations d'ordre moteur ou mental. Les troubles se répercutant sur l'écriture sont nombreux.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le précurseur de l'utilisation médicale des différentes données de l'écriture fut le Dr Marcé de l'hôpital de Bicètre. En 1860, il publie une monographie intitulée De la valeur des écrits des aliénés au point de vue de la sémiologie et de la médecine légale.
 Avec les progrès des moyens diagnostiques, les médecins se sont progressivement moins intéressés aux déformations spécifiques de l'écriture entraînées par des états pathologiques. Mais, pendant longtemps, on a fait écrire le malade admis à l'hôpital.
@@ -544,12 +558,49 @@
           <t>Graphodiagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Si les médecins ne s'y intéressent désormais que marginalement, les experts près les Tribunaux se sont chargés de développer la discipline. On a défini les critères du graphodiagnostic. Les observations doivent porter sur les aspects moteurs de l'écriture, mais aussi sur le contenu (organisation du discours), auxquels s'ajoute une étude technique du trait, qui permet de repérer les déformations et de procéder à des mesures à l'aide d'un matériel approprié : typomètre, loupe, palpeur de rugosité de surface, rapporteur électronique, voire microscope.
 Le tremblement est l'une des causes les plus fréquentes de déformation de l'écriture. L'expert averti peut repérer facilement le tremblement simulé (par exemple d'un faux testament...) "Le forgeur tremble plus au commencement qu'à la fin des mots, à l'inverse des tremblements pathologiques qui s'accroissent avec l'avancement de l'écrit". 
-Causes de tremblement de l'écriture
-Certaines anomalies graphiques caractéristiques sont connues, comme la micrographie associée au tremblement de Parkinson. D'autres déformations de l'écriture dans cette maladie sont moins connues alors qu'elles permettent d'orienter le diagnostic dès le début de la maladie. "L'écriture est micrographique, caractérisée par un tremblement horizontal en hachure, respectant la forme de la lettre, avec une réduction des diamètres (lettres à ove), traits informes jetés en tous sens, mêlés de taches et de stases d'encre (l'acte d'écrire est difficile)." À l'inverse, la maladie de Parkinson postencéphalique, telle qu'elle a été observée après la grippe espagnole de 1918-1919, ne donne pas de micrographie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Graphopathologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Graphopathologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Graphodiagnostic</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Causes de tremblement de l'écriture</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines anomalies graphiques caractéristiques sont connues, comme la micrographie associée au tremblement de Parkinson. D'autres déformations de l'écriture dans cette maladie sont moins connues alors qu'elles permettent d'orienter le diagnostic dès le début de la maladie. "L'écriture est micrographique, caractérisée par un tremblement horizontal en hachure, respectant la forme de la lettre, avec une réduction des diamètres (lettres à ove), traits informes jetés en tous sens, mêlés de taches et de stases d'encre (l'acte d'écrire est difficile)." À l'inverse, la maladie de Parkinson postencéphalique, telle qu'elle a été observée après la grippe espagnole de 1918-1919, ne donne pas de micrographie.
 La maladie d'Alzheimer entraîne des déformations à type d'écriture en vague, en sinusoïde; la personne ne tient pas la ligne. Plus la maladie est avancée, plus les vagues sont marquées, jusqu'au moment où le sujet ne peut plus écrire.
 Beaucoup d'affections organiques sont repérables dans l'écriture. On peut citer l'exemple de la sclérose en plaques (ataxie, blocages du trait, tremblement intentionnel...) ou de la dépression (direction descendante des lignes, pression légère, espaces irréguliers, chute molle des finales...)
 La "crampe de l'écrivain" est, en fait, une dystonie, qui oblige parfois le scripteur à renoncer à écrire et il finit par écrire de l'autre main.
@@ -576,31 +627,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Graphopathologie</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Graphopathologie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
